--- a/biology/Médecine/Trypsine/Trypsine.xlsx
+++ b/biology/Médecine/Trypsine/Trypsine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La trypsine (EC 3.4.21.4) est une peptidase du suc pancréatique participant à la digestion des protéines. Il s'agit d'une protéase à sérine qui hydrolyse les liaisons peptidiques situées côté C d'un résidu  de lysine ou d'arginine, qui sont des acides aminés basiques.
@@ -512,7 +524,9 @@
           <t>Synthèse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est synthétisée par le pancréas sous forme de trypsinogène (proenzyme inactive), puis stockée dans les vésicules enzymatiques des cellules acineuses d'où elle est excrétée au moment de la digestion. L'activation du trypsinogène en trypsine est le résultat de l'hydrolyse du propeptide sous l'action de l'entérokinase ou par un effet d'autoactivation de la trypsine. La cholecystokinine-pancréozymine active la sécrétion des enzymes (donc de la trypsine) dans le suc pancréatique.
 </t>
@@ -543,7 +557,9 @@
           <t>Activité enzymatique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La trypsine est une endoprotéase qui hydrolyse les liaisons peptidiques dans lesquelles un acide aminé basique (Lys-|-Xaa ou Arg-|-Xaa) engage sa fonction acide (sauf dans le cas où l'acide aminé suivant (schématisé ici par "Xaa") est une Proline). Elle coupe en C-terminal de ces acides aminés. En d'autres termes, elle transforme les chaînes polypeptides en chaînes protéiques plus courtes pour permettre la digestion. Efficace à pH 7,5 - 8,5, elle est inactivée et digérée en quelques heures à pH neutre (=7) dans l'intestin.
 La trypsine participe à l'activation d'autres enzymes comme l'alpha-chymotrypsine par coupure hydrolytique de la chaîne polypeptidique du chymotrypsinogène.
@@ -576,7 +592,9 @@
           <t>Mécanisme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La trypsine appartient à la famille des protéases à sérine dont elle est l'archétype. Ces enzymes sont caractérisées par la présence d'une triade catalytique composée des chaînes latérales de trois acides aminés :  une sérine (Ser-195), une histidine (His-57) et un aspartate (Asp-102). Ces résidus sont en interaction et forment un relai de charge qui rend nucléophile la serine du site actif et permet l'attaque du groupement carbonyle de la liaison peptidique hydrolysée.
 De plus, la trypsine contient un « trou oxyanion » bordé par les groupements amides du squelette polypeptidique au niveau de la glycine 193 et de la serine 195. Cette cavité accueille l'atome d'oxygène du groupement carbonyle de la liaison peptique clivée et stabilise l'intermédiaire de réaction en favorisant la formation d'une charge négative sur l'oxygène.
@@ -609,7 +627,9 @@
           <t>Pathologies associées</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la pancréatite et la mucoviscidose, la trypsine étant mal évacuée, elle est la principale cause de la réaction inflammatoire du pancréas.
 </t>
@@ -640,10 +660,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La trypsine se retrouve chez la plupart des animaux. Cette enzyme est très utilisée pour des approches de recherche en protéomique, spécialement pour la caractérisation et séquençage de protéines. Elle est ainsi notamment utilisée en spectrométrie de masse pour digérer les protéines avant analyse.
-La trypsine est utilisée en culture cellulaire pour détacher des cellules adhérant sur les flasques de culture ou les boîtes de Petri. En effet, la trypsine clive les protéines membranaires d'adhésion, et les cellules se retrouvent alors en suspension. Cette "trypsinisation" est quotidiennement utilisée pour maintenir les cultures cellulaires (en passant à une flasque de culture plus grande ou en multipliant les flasques), pour compter les cellules par cytométrie en flux, ou pour faire d'autres analyses. Ce traitement affecte cependant un peu les cellules (viabilité, marqueurs membranaires), aussi l'action de la trypsine doit-elle être limitée: éliminée par lavage des cellules, elle est aussi inhibée par un ajout de sérum de veau fœtal (protéines en large excès sur les protéines membranaires), ou d'un inhibiteur spécifique[2]. Alternativement, d'autres enzymes sont utilisées[3].
+La trypsine est utilisée en culture cellulaire pour détacher des cellules adhérant sur les flasques de culture ou les boîtes de Petri. En effet, la trypsine clive les protéines membranaires d'adhésion, et les cellules se retrouvent alors en suspension. Cette "trypsinisation" est quotidiennement utilisée pour maintenir les cultures cellulaires (en passant à une flasque de culture plus grande ou en multipliant les flasques), pour compter les cellules par cytométrie en flux, ou pour faire d'autres analyses. Ce traitement affecte cependant un peu les cellules (viabilité, marqueurs membranaires), aussi l'action de la trypsine doit-elle être limitée: éliminée par lavage des cellules, elle est aussi inhibée par un ajout de sérum de veau fœtal (protéines en large excès sur les protéines membranaires), ou d'un inhibiteur spécifique. Alternativement, d'autres enzymes sont utilisées.
 La trypsine est également utilisée en immuno-hématologie pour la recherche des anticorps irréguliers ou encore lors de l'établissement d'un caryotype : par exemple, en hydrolysant les histones, et combinée à la coloration par le Giemsa, elle permet l'apparition de bandes G sur l'ADN et donc l'identification précise des chromosomes. Une anomalie chromosomique peut être ainsi détectée.
 </t>
         </is>
@@ -673,7 +695,9 @@
           <t>Séquence de la trypsine humaine</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L'isoforme A contient 304 acides aminés.
         10         20         30         40         50         60         70         80         90        100 
